--- a/results/6700xt.xlsx
+++ b/results/6700xt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,24 +481,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX VGA 8GB Radeon RX6700 SWFT309 Core Gaming 3xDP/H Speedster SWFT309 AMD Radeon RX 6700 Core Gaming G  </t>
+          <t xml:space="preserve">XFX VGA 8GB Radeon RX6700 SWFT309 CORE Gaming 3xDP/H Speedster SWFT309 AMD Radeon RX 6700 CORE Gaming G  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Radeon-RX6700-SWFT309-Speedster/dp/B0BCL3L6ZG/ref=sr_1_4?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-4</t>
+          <t>https://www.amazon.de/XFX-Radeon-RX6700-SWFT309-Speedster/dp/B0BCL3L6ZG/ref=sr_1_6?keywords=6700xt&amp;qid=1671321435&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -522,22 +522,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX VGA 8GB Radeon RX6700 SWFT309 Core Gaming 3xDP/H Speedster SWFT309 AMD Radeon RX 6700 Core Gaming G, RX-67XLKWFDV  </t>
+          <t xml:space="preserve">PowerColor RX 6700 Fighter 10GB DDR6 HDMI + 3xDP  </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Radeon-SWFT309-Speedster-RX-67XLKWFDV/dp/B0BCL3L6ZG/ref=sr_1_14?keywords=6700xt&amp;qid=1671224633&amp;sr=8-14</t>
+          <t>https://www.amazon.de/PowerColor-6700-Fighter-10GB-DDR6/dp/B0B7C1NL3D/ref=sr_1_2?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>403</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9</v>
+        <v>379</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,12 +548,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -566,19 +568,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PowerColor-6700-Fighter-Tarjeta-gr%C3%A1fica/dp/B0B7C1NL3D/ref=sr_1_19?keywords=6700xt&amp;qid=1671224633&amp;sr=8-19</t>
+          <t>https://www.amazon.es/PowerColor-6700-Fighter-Tarjeta-gr%C3%A1fica/dp/B0B7C1NL3D/ref=sr_1_7?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-7</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -592,7 +594,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -602,31 +604,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Technology Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP  </t>
+          <t xml:space="preserve">XFX VGA 8GB Radeon RX6700 SWFT309 Core Gaming 3xDP/H Speedster SWFT309 AMD Radeon RX 6700 Core Gaming G  </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Sapphire-Technology-Radeon-Gaming-GDDR6/dp/B0B3RM3CF5/ref=sr_1_14?keywords=6700xt&amp;qid=1671224636&amp;sr=8-14</t>
+          <t>https://www.amazon.fr/XFX-Radeon-RX6700-SWFT309-Speedster/dp/B0BCL3L6ZG/ref=sr_1_3?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo entro </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>435</v>
-      </c>
-      <c r="G5" t="n">
-        <v>418</v>
+        <v>399</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -641,36 +645,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE TECHNOLOGY Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP  </t>
+          <t xml:space="preserve">SAPPHIRE AMD Radeon 6700 Gaming OC 10GB GDDR6 HDMI/Triple DP 11321-03-20G  </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/SAPPHIRE-TECHNOLOGY-Radeon-Gaming-GDDR6/dp/B0B3RM3CF5/ref=sr_1_21?keywords=6700xt&amp;qid=1671224633&amp;sr=8-21</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Radeon-Gaming-Triple-11321-03-20G/dp/B0B3RM3CF5/ref=sr_1_10?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>439</v>
-      </c>
-      <c r="G6" t="n">
-        <v>418</v>
+        <v>403</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -680,31 +686,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE AMD Radeon 6700 Gaming OC 10GB GDDR6 HDMI/Triple DP 11321-03-20G  </t>
+          <t xml:space="preserve">PowerColor RX 6700 Fighter 10GB DDR6 HDMI + 3xDP  </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-Radeon-Gaming-Triple-11321-03-20G/dp/B0B3RM3CF5/ref=sr_1_16?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-16</t>
+          <t>https://www.amazon.de/PowerColor-6700-Fighter-10GB-DDR6/dp/B0B7C1NL3D/ref=sr_1_9?keywords=6700xt&amp;qid=1671321435&amp;sr=8-9</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="G7" t="n">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -719,27 +725,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6700 XT MECH 2X 12G Gaming Graphics Card - 12GB GDDR6, 2581MHz, PCI Express 4, 192 bit, 3x DP v 1.4, HDMI 2.1 (supporta 4K e 8K)  </t>
+          <t xml:space="preserve">Sapphire Technology Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP  </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-Radeon-6700-MECH-12G/dp/B08Z8MV8BW/ref=sr_1_26?keywords=6700xt&amp;qid=1671224636&amp;sr=8-26</t>
+          <t>https://www.amazon.it/Sapphire-Technology-Radeon-Gaming-GDDR6/dp/B0B3RM3CF5/ref=sr_1_10?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>460</v>
-      </c>
-      <c r="G8" t="n">
-        <v>426</v>
+        <v>408</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -748,7 +756,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -758,22 +766,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Gaming Radeon RX 6700 XT 192-bit 12GB GDDR6 DP/HDMI Dual Torx 3.0 Ventiladores FreeSync DirectX 12 VR Ready Tarjeta gráfica (RX 6700 XT Mech 2X 12G)  </t>
+          <t xml:space="preserve">SAPPHIRE TECHNOLOGY Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP  </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/MSI-RX-6700-XT-12G/dp/B08Z84S3K6/ref=sr_1_41_mod_primary_new?keywords=6700xt&amp;qid=1671224633&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-41</t>
+          <t>https://www.amazon.es/SAPPHIRE-TECHNOLOGY-Radeon-Gaming-GDDR6/dp/B0B3RM3CF5/ref=sr_1_8?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>455</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
+        <v>409</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -787,7 +797,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -797,24 +807,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor Fighter AMD Radeon RX 6700 XT Carte Graphique de Gaming avec mémoire GDDR6 12 Go, alimentée par AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
+          <t xml:space="preserve">XFX VGA 8GB Radeon RX6700 SWFT309 Core Gaming 3xDP/H Speedster SWFT309 AMD Radeon RX 6700 Core Gaming G, RX-67XLKWFDV  </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/PowerColor-Graphique-aliment%C3%A9-Raytracing-Infinity/dp/B08Y91QVG8/ref=sr_1_8_mod_primary_new?keywords=6700+xt&amp;qid=1671224635&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-8</t>
+          <t>https://www.amazon.es/XFX-Radeon-SWFT309-Speedster-RX-67XLKWFDV/dp/B0BCL3L6ZG/ref=sr_1_15?keywords=6700xt&amp;qid=1671321430&amp;sr=8-15</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>464</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>403</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -823,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -838,24 +846,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster SWFT309 AMD Radeon RX 6700 XT Core Tarjeta gráfica para Juegos con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYJFDV  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT MECH 2X 12G Gaming Graphics Card - 12GB GDDR6, 2581MHz, PCI Express 4, 192 bit, 3x DP v 1.4, HDMI 2.1 (supporta 4K e 8K)  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-SWFT309-Tarjeta-RX-67XTYJFDV/dp/B08YKCC8XD/ref=sr_1_12?keywords=6700xt&amp;qid=1671224633&amp;sr=8-12</t>
+          <t>https://www.amazon.it/MSI-Radeon-6700-MECH-12G/dp/B08Z8MV8BW/ref=sr_1_11?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -864,12 +872,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -879,36 +887,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS Dual Radeon RX 6700 XT (12 GB GDDR6, ventilateurs axiaux, double roulement à billes, Technologie Auto-Extreme, Plaque arrière de protection)  </t>
+          <t xml:space="preserve">Tarjeta gráfica gaming MSI Radeon RX 6700 XT MECH 2X 12G, 12GB GDDR6, 192 bit, AMD RDNA 2, TORX FAN 3.0, PCI Express Gen 4, DisplayPort v1.4a, HDMI 2.1, Zero Frozr, Raytracing, admite Afterburner  </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASUS-ventilateurs-Technologie-Auto-Extreme-protection/dp/B08CS6Z8R9/ref=sr_1_5?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-5</t>
+          <t>https://www.amazon.es/MSI-Radeon-6700-MECH-12G/dp/B08Z8MV8BW/ref=sr_1_3?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>470</v>
-      </c>
-      <c r="G12" t="n">
-        <v>469</v>
+        <v>429</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -918,31 +928,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6700 XT Mech 2X 12G AMD 12 Go GDDR6  </t>
+          <t xml:space="preserve">PowerColor RX 6700 Fighter 10GB DDR6 HDMI + 3xDP Tarjeta gráfica  </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-Radeon-RX-6700-12G/dp/B08Z8MV8BW/ref=sr_1_2?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-2</t>
+          <t>https://www.amazon.es/PowerColor-6700-Fighter-Tarjeta-gr%C3%A1fica/dp/B0B7C1NL3D/ref=sr_1_20?keywords=6700xt&amp;qid=1671321430&amp;sr=8-20</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Entrega GRATIS el </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="G13" t="n">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -957,24 +967,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Gaming Radeon RX 6700 XT Carte Graphique 192 Bits GDDR6 DP/HDMI Dual Torx 3.0 Ventilateurs FreeSync DirectX 12 VR Ready (RX 6700 XT Mech 2X 12G)  </t>
+          <t xml:space="preserve">ASUS Dual AMD Radeon RX 6700 XT 12GB Gaming Grafikkarte (GDDR6 Speicher, PCIe 4.0, 1x HDMI 2.1, 3x DisplayPort 1.4, DUAL-RX6700XT-12G)  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-RX-6700-Ventilateurs-12G/dp/B08Z84S3K6/ref=sr_1_6?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-6</t>
+          <t>https://www.amazon.de/ASUS-Radeon-6700-GDDR6-Express/dp/B08CS6Z8R9/ref=sr_1_1?keywords=6700xt&amp;qid=1671321435&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -983,7 +993,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -998,24 +1008,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6700 XT Mech 2X 12G OC AMD 12 Go GDDR6 Noir, Acier Inoxydable  </t>
+          <t xml:space="preserve">SAPPHIRE Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP, Black, 11321-03-20G  </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-Radeon-RX-6700-12G/dp/B08Z8LHVR1/ref=sr_1_10_mod_primary_new?keywords=6700+xt&amp;qid=1671224635&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-10</t>
+          <t>https://www.amazon.de/SAPPHIRE-Radeon-Gaming-GDDR6-11321-03-20G/dp/B0B3RM3CF5/ref=sr_1_5?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1024,12 +1034,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1039,31 +1049,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor Fighter AMD Radeon RX 6700 XT Scheda grafica da gioco con memoria GDDR6 da 12 GB, alimentata da AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
+          <t xml:space="preserve">SAPPHIRE AMD Radeon 6700 Gaming OC 10GB GDDR6 HDMI/Triple DP 11321-03-20G  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/PowerColor-Fighter-AMD-Radeon-6700/dp/B08Y91QVG8/ref=sr_1_24?keywords=6700xt&amp;qid=1671224636&amp;sr=8-24</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Radeon-Gaming-Triple-11321-03-20G/dp/B0B3RM3CF5/ref=sr_1_18?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="G16" t="n">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1078,29 +1088,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor Fighter - Tarjeta gráfica AMD Radeon RX 6700 XT para Juegos con Memoria GDDR6 de 12 GB, alimentada por AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
+          <t xml:space="preserve">Sapphire Technology Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP  </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PowerColor-Fighter-AMD-Radeon-6700/dp/B08Y91QVG8/ref=sr_1_13?keywords=6700xt&amp;qid=1671224633&amp;sr=8-13</t>
+          <t>https://www.amazon.it/Sapphire-Technology-Radeon-Gaming-GDDR6/dp/B0B3RM3CF5/ref=sr_1_13?keywords=6700xt&amp;qid=1671321434&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="G17" t="n">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1115,33 +1125,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RX 6700XT MECH 2X 12GB DDR6 3XDP/HDMI V398-005R  </t>
+          <t xml:space="preserve">SAPPHIRE TECHNOLOGY Radeon RX 6700 Gaming OC 10GB GDDR6 HDMI/3XDP  </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-6700-MECH-12G-raffreddamento/dp/B08Z84S3K6/ref=sr_1_13?keywords=6700xt&amp;qid=1671224636&amp;sr=8-13</t>
+          <t>https://www.amazon.es/SAPPHIRE-TECHNOLOGY-Radeon-Gaming-GDDR6/dp/B0B3RM3CF5/ref=sr_1_23?keywords=6700xt&amp;qid=1671321430&amp;sr=8-23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t xml:space="preserve">Entrega GRATIS el </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>478</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>447</v>
+      </c>
+      <c r="G18" t="n">
+        <v>409</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1156,24 +1164,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS DUAL AMD Radeon RX 6700 XT OC Edition – Carte graphique (12GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Ventilateurs axiaux, 0dB)  </t>
+          <t xml:space="preserve">Tarjeta gráfica gaming MSI Radeon RX 6700 XT GAMING X 12G, 12 GB GDDR6, 192 bit, AMD RDNA 2, TWIN FROZR 8, TORX FAN 4.0, PCI Express Gen 4, DisplayPort v1.4a, HDMI 2.1, Zero Frozr, Raytracing  </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASUS-RX7600XT-Dual-Carte-Graphique/dp/B09DVMC4BV/ref=sr_1_14?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-14</t>
+          <t>https://www.amazon.es/MSI-Radeon-6700-GAMING-12G/dp/B002TCB038/ref=sr_1_13?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1182,12 +1190,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1197,36 +1205,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS DUAL AMD Radeon RX 6700 XT Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, Tecnologia 0dB, GPU Tweak II, Nero  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT Mech 2X 12G AMD 12 Go GDDR6  </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASUS-memoria-DisplayPort-Axial-tech-tecnologia/dp/B08CS6Z8R9/ref=sr_1_23?keywords=6700xt&amp;qid=1671224636&amp;sr=8-23</t>
+          <t>https://www.amazon.fr/MSI-Radeon-RX-6700-12G/dp/B08Z8MV8BW/ref=sr_1_2?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>493</v>
-      </c>
-      <c r="G20" t="n">
-        <v>467</v>
+        <v>449</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1236,34 +1246,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS Dual AMD Radeon RX 6700 XT STD Edition 12 GB GDDR6 - Tarjeta gráfica Gaming (AMD RDNA 2, PCIe 4.0, 12 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventiladores Axial-Tech), 90YV0G82-M0NA00  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT GAMING X 12G Scheda video gaming AMD 12GB GDDR6, RGB Mystic Light, 3x DisplayPort, HDMI, sistema di dissipazione a doppia ventola  </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-Dual-Radeon-6700-GDDR6/dp/B08CS6Z8R9/ref=sr_1_34?keywords=6700xt&amp;qid=1671224633&amp;sr=8-34</t>
+          <t>https://www.amazon.it/MSI-Radeon-6700-GAMING-12G/dp/B002TCB038/ref=sr_1_12?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-12</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>489</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11</v>
+        <v>449</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
-      </c>
-      <c r="G21" t="n">
-        <v>467</v>
+        <v>449</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1273,36 +1287,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS DUAL AMD Radeon RX 6700XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech, Doppi Cuscinetti a Sfera, Tecnologia 0dB, GPU Tweak II, Nero  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT Gaming X 12G Grafikkarte '12GB GDDR6, RGB Mystic Light, AMD, 3X DisplayPort, HDMI, Dual Fan Cooling System'  </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASUS-Grafica-DisplayPort-Cuscinetti-Tecnologia/dp/B09DVMC4BV/ref=sr_1_1?keywords=6700xt&amp;qid=1671224636&amp;sr=8-1</t>
+          <t>https://www.amazon.de/PC-Systeme-Komplettsysteme-Betriebssystem-PC-System-AE2200-Q9445W7H/dp/B002TCB038/ref=sr_1_9?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-9</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>505</v>
-      </c>
-      <c r="G22" t="n">
-        <v>491</v>
+        <v>449</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1312,31 +1328,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASROCK CHALLENGER RADEON RX 6700 XT D 12GB OC AMD GDDR6  </t>
+          <t xml:space="preserve">PowerColor Fighter AMD Radeon RX 6700 XT Gaming Grafikkarte mit 12GB GDDR6 Speicher, Powered by AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache, AXRX 6700XT 12GBD6-3DH  </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Asrock-Scheda-grafica-Challenger-RX6700XT/dp/B0977DG15L/ref=sr_1_2?keywords=6700xt&amp;qid=1671224636&amp;sr=8-2</t>
+          <t>https://www.amazon.de/PowerColor-Grafikkarte-Speicher-angetrieben-Raytracing/dp/B08Y91QVG8/ref=sr_1_13?keywords=6700xt&amp;qid=1671321435&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="G23" t="n">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1351,31 +1367,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE VGA Nitro+ Radeon RX 6700 XT 12GB Gaming GDDR6 (UEFI)  </t>
+          <t xml:space="preserve">MSI Gaming Radeon RX 6700 XT 192-bit 12GB GDDR6 DP/HDMI Dual Torx 3.0 Ventiladores FreeSync DirectX 12 VR Ready Tarjeta gráfica (RX 6700 XT Mech 2X 12G)  </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-Nitro-Radeon-Gaming-GDDR6/dp/B0BDLSVF17/ref=sr_1_30?keywords=6700xt&amp;qid=1671224636&amp;sr=8-30</t>
+          <t>https://www.amazon.es/MSI-RX-6700-XT-12G/dp/B08Z84S3K6/ref=sr_1_41_mod_primary_new?keywords=6700xt&amp;qid=1671321430&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-41</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>515</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricevilo entro </t>
-        </is>
+        <v>455</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>515</v>
-      </c>
-      <c r="G24" t="n">
-        <v>490</v>
+        <v>460</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1390,24 +1406,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE RX6700 XT Eagle 12GD Carte Graphique Taille Unique Noir  </t>
+          <t xml:space="preserve">Powercolor Fighter AMD Radeon RX 6700 XT Carte Graphique de Gaming avec mémoire GDDR6 12 Go, alimentée par AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Gigabyte-Radeon-Eagle-Carte-Graphique/dp/B08Y758F6C/ref=sr_1_15?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-15</t>
+          <t>https://www.amazon.fr/PowerColor-Graphique-aliment%C3%A9-Raytracing-Infinity/dp/B08Y91QVG8/ref=sr_1_8_mod_primary_new?keywords=6700+xt&amp;qid=1671321432&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1431,31 +1447,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE VGA Nitro+ Radeon RX 6700 XT 12 Go Gaming GDDR6 (UEFI)  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT MECH 2X 12G Gaming Graphics Card - 12GB GDDR6, 2581MHz, PCI Express 4, 192 bit, 3x DP v 1.4, HDMI 2.1 (supporta 4K e 8K)  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-Nitro-Radeon-Gaming-GDDR6/dp/B0BDLSVF17/ref=sr_1_11?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-11</t>
+          <t>https://www.amazon.it/MSI-Radeon-6700-MECH-12G/dp/B08Z8MV8BW/ref=sr_1_26?keywords=6700xt&amp;qid=1671321434&amp;sr=8-26</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>524</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le </t>
-        </is>
+        <v>460</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="G26" t="n">
-        <v>501</v>
+        <v>426</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1470,29 +1484,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asrock RX 6700XT Challenger D RX6700XT CLD 12 GB OC  </t>
+          <t xml:space="preserve">ASUS Dual Radeon RX 6700 XT (12 GB GDDR6, ventilateurs axiaux, double roulement à billes, Technologie Auto-Extreme, Plaque arrière de protection)  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Asrock-6700XT-Challenger-RX6700XT-CLD/dp/B0977DG15L/ref=sr_1_1?keywords=6700xt&amp;qid=1671224633&amp;sr=8-1</t>
+          <t>https://www.amazon.fr/ASUS-ventilateurs-Technologie-Auto-Extreme-protection/dp/B08CS6Z8R9/ref=sr_1_5?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>527</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5</v>
+        <v>470</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="G27" t="n">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1507,29 +1523,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS Dual AMD Radeon RX 6700 XT OC Edition - Tarjeta Gráfica (12GB GDDR6, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventiladores Axial-Tech, Tecnología 0dB)  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT Mech 2X 12G AMD 12 Go GDDR6  </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-90YV0G83-M0NA00-DUAL-RX6700XT-O12G-12GB-GDDR6/dp/B09DVMC4BV/ref=sr_1_45?keywords=6700xt&amp;qid=1671224633&amp;sr=8-45</t>
+          <t>https://www.amazon.fr/MSI-Radeon-RX-6700-12G/dp/B08Z8MV8BW/ref=sr_1_2?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>528</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12</v>
+        <v>471</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="G28" t="n">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1544,16 +1562,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASRock Challenger Radeon RX 6700 XT Pro 12GB OC AMD 12 Go GDDR6 Carte Graphique Noir  </t>
+          <t xml:space="preserve">MSI Gaming Radeon RX 6700 XT Carte Graphique 192 Bits GDDR6 DP/HDMI Dual Torx 3.0 Ventilateurs FreeSync DirectX 12 VR Ready (RX 6700 XT Mech 2X 12G)  </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASRock-Challenger-Radeon-GDDR6-Graphique/dp/B08ZDT3Q8H/ref=sr_1_48?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-48</t>
+          <t>https://www.amazon.fr/MSI-RX-6700-Ventilateurs-12G/dp/B08Z84S3K6/ref=sr_1_6?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>549</v>
+        <v>471</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1561,7 +1579,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>549</v>
+        <v>471</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1585,33 +1603,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX-67XTYJFDV Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6  </t>
+          <t xml:space="preserve">PowerColor Fighter - Tarjeta gráfica AMD Radeon RX 6700 XT para Juegos con Memoria GDDR6 de 12 GB, alimentada por AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-RX-67XTYJFDV-Carte-Graphique-Radeon/dp/B08YKCC8XD/ref=sr_1_1?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-1</t>
+          <t>https://www.amazon.es/PowerColor-Fighter-AMD-Radeon-6700/dp/B08Y91QVG8/ref=sr_1_14?keywords=6700xt&amp;qid=1671321430&amp;sr=8-14</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>566</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le </t>
-        </is>
+        <v>471</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>566</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>476</v>
+      </c>
+      <c r="G30" t="n">
+        <v>460</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1626,31 +1640,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asrock S RX 6700XT Challenger 12G Scheda Grafica - 12GB GDDR6, 1x HDMI, 3X DP  </t>
+          <t xml:space="preserve">XFX Speedster SWFT309 AMD Radeon RX 6700 XT Core Tarjeta gráfica para Juegos con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYJFDV  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Asrock-6700XT-Challenger-Scheda-Grafica/dp/B093Z4BHJH/ref=sr_1_6?keywords=6700xt&amp;qid=1671224636&amp;sr=8-6</t>
+          <t>https://www.amazon.es/XFX-Speedster-SWFT309-Tarjeta-RX-67XTYJFDV/dp/B08YKCC8XD/ref=sr_1_13?keywords=6700xt&amp;qid=1671321430&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>578</v>
+        <v>477</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo entro </t>
+          <t xml:space="preserve">Entrega GRATIS el </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>578</v>
+        <v>477</v>
       </c>
       <c r="G31" t="n">
-        <v>562</v>
+        <v>469</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1665,31 +1679,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RX 6700 XT Gaming X 12G Taille Unique  </t>
+          <t xml:space="preserve">ASUS Dual AMD Radeon RX 6700 XT STD Edition 12 GB GDDR6 - Tarjeta gráfica Gaming (AMD RDNA 2, PCIe 4.0, 12 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventiladores Axial-Tech), 90YV0G82-M0NA00  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/RX-6700-XT-Gaming-12G/dp/B002TCB038/ref=sr_1_7?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-7</t>
+          <t>https://www.amazon.es/ASUS-Dual-Radeon-6700-GDDR6/dp/B08CS6Z8R9/ref=sr_1_34?keywords=6700xt&amp;qid=1671321430&amp;sr=8-34</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>609</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le </t>
-        </is>
+        <v>470</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>609</v>
+        <v>479</v>
       </c>
       <c r="G32" t="n">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1704,31 +1716,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE Pulse AMD Radeon™ RX 6700 XT Gaming 12GB GDDR6 HDMI / Triple DP  </t>
+          <t xml:space="preserve">Powercolor Fighter AMD Radeon RX 6700 XT Scheda grafica da gioco con memoria GDDR6 da 12 GB, alimentata da AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-Pulse-RadeonTM-Gaming-Triple/dp/B08Y7ZYNDN/ref=sr_1_17?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-17</t>
+          <t>https://www.amazon.it/PowerColor-Fighter-AMD-Radeon-6700/dp/B08Y91QVG8/ref=sr_1_24?keywords=6700xt&amp;qid=1671321434&amp;sr=8-24</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>609</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>476</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="G33" t="n">
-        <v>530</v>
+        <v>451</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1743,29 +1753,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerLix Asrock Challenger Radeon RX 6700 XT Pro 12GB OC AMD GDDR6  </t>
+          <t xml:space="preserve">MSI RX 6700XT MECH 2X 12GB DDR6 3XDP/HDMI V398-005R  </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Asrock-Challenger-Radeon-6700-GDDR6/dp/B08ZDT3Q8H/ref=sr_1_38?keywords=6700xt&amp;qid=1671224633&amp;sr=8-38</t>
+          <t>https://www.amazon.it/MSI-6700-MECH-12G-raffreddamento/dp/B08Z84S3K6/ref=sr_1_12?keywords=6700xt&amp;qid=1671321434&amp;sr=8-12</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>608</v>
+        <v>478</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>614</v>
-      </c>
-      <c r="G34" t="n">
-        <v>549</v>
+        <v>483</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1780,24 +1792,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE Carte Graphique AMD Radeon RX 6700 XT Eagle OC 12Go Noir  </t>
+          <t xml:space="preserve">GIGABYTE RX6700 XT Eagle 12GD Carte Graphique Taille Unique Noir  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/GIGABYTE-Carte-Graphique-Radeon-Eagle/dp/B09MWKTKTW/ref=sr_1_40?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-40</t>
+          <t>https://www.amazon.fr/Gigabyte-Radeon-Eagle-Carte-Graphique/dp/B08Y758F6C/ref=sr_1_15?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-15</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>619</v>
+        <v>491</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>619</v>
+        <v>491</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1821,27 +1833,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Radeon RX 6700 XT Gaming OC 12G Carte Graphique avec système de Refroidissement WINDFORCE 3X, GDDR6 12 Go 192 Bits GV-R67XTGAMING OC-12GD  </t>
+          <t xml:space="preserve">ASUS DUAL AMD Radeon RX 6700 XT OC Edition – Carte graphique (12GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Ventilateurs axiaux, 0dB)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Graphique-WINDFORCE-Refroidissement-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_21?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-21</t>
+          <t>https://www.amazon.fr/ASUS-RX7600XT-Dual-Carte-Graphique/dp/B09DVMC4BV/ref=sr_1_16?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-16</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>624</v>
+        <v>496</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>624</v>
+        <v>496</v>
       </c>
       <c r="G36" t="n">
-        <v>609</v>
+        <v>483</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1860,16 +1872,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">msi Radeon RX 6700 XT Gaming X 12G (12GB, Gaming-Carte graphiquen)  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT Mech 2X 12G OC AMD 12 Go GDDR6 Noir, Acier Inoxydable  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Radeon-Gaming-Carte-Graphique-GDDR6/dp/B002U4KOVY/ref=sr_1_25?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-25</t>
+          <t>https://www.amazon.fr/MSI-Radeon-RX-6700-12G/dp/B08Z8LHVR1/ref=sr_1_11?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>624</v>
+        <v>498</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1877,12 +1889,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>624</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>498</v>
+      </c>
+      <c r="G37" t="n">
+        <v>474</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1901,31 +1911,33 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">VGA GIGABYTE RADEON RX 6700 XT GAMING OC 12GB GDDR6 RGB  </t>
+          <t xml:space="preserve">PowerColor Red Devil AMD Radeon Gaming Grafikkarte mit 12 GB GDDR6 Speicher, angetrieben von AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache, AXRX 6700XT 12GBD6-3DHE/OC  </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/grafica-raffreddamento-WINDFORCE-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_32?keywords=6700xt&amp;qid=1671224636&amp;sr=8-32</t>
+          <t>https://www.amazon.de/PowerColor-Grafikkarte-Speicher-angetrieben-Raytracing/dp/B08Y934HZQ/ref=sr_1_3?keywords=6700xt&amp;qid=1671321435&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>625</v>
+        <v>501</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>625</v>
-      </c>
-      <c r="G38" t="n">
-        <v>616</v>
+        <v>501</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1940,27 +1952,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheda grafica Radeon RX 6700 XT Eagle 12G WINDFORCE 3X sistema di raffreddamento, 12GB 192-bit GDDR6, GV-R67XTEAGLE-12GD  </t>
+          <t xml:space="preserve">ASUS DUAL AMD Radeon RX 6700 XT Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, Tecnologia 0dB, GPU Tweak II, Nero  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Grafica-Sistema-Raffreddamento-WINDFORCE-GV-R67XTEAGLE-12GD/dp/B08Z4J6NHW/ref=sr_1_37?keywords=6700xt&amp;qid=1671224636&amp;sr=8-37</t>
+          <t>https://www.amazon.it/ASUS-memoria-DisplayPort-Axial-tech-tecnologia/dp/B08CS6Z8R9/ref=sr_1_23?keywords=6700xt&amp;qid=1671321434&amp;sr=8-23</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>627</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricevilo </t>
-        </is>
+        <v>493</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>627</v>
+        <v>504</v>
       </c>
       <c r="G39" t="n">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1979,33 +1989,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radeon RX 6700 XT Eagle Carte Graphique 12 G, système de Refroidissement Windforce 3X, GDDR6 192 Bits, GV-R67XTEAGLE-12GD  </t>
+          <t xml:space="preserve">ASRock RX 6700XT Challenger D RX6700XT CLD 12GB OC  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Graphique-syst%C3%A8me-Refroidissement-WINDFORCE-GV-R67XTEAGLE-12GD/dp/B08Z4J6NHW/ref=sr_1_30?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-30</t>
+          <t>https://www.amazon.de/ASRock-6700XT-Challenger-RX6700XT-12GB/dp/B0977DG15L/ref=sr_1_4?keywords=6700xt&amp;qid=1671321435&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>627</v>
+        <v>511</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>627</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>511</v>
+      </c>
+      <c r="G40" t="n">
+        <v>505</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2020,25 +2028,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE VGA Nitro+ Radeon RX 6700 XT 12GB Gaming GDDR6 (UEFI)  </t>
+          <t xml:space="preserve">ASUS Dual AMD Radeon RX 6700 XT OC Edition - Tarjeta Gráfica (12GB GDDR6, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventiladores Axial-Tech, Tecnología 0dB)  </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/SAPPHIRE-Nitro-Radeon-Gaming-GDDR6/dp/B0BDLSVF17/ref=sr_1_17?keywords=6700xt&amp;qid=1671224633&amp;sr=8-17</t>
+          <t>https://www.amazon.es/ASUS-90YV0G83-M0NA00-DUAL-RX6700XT-O12G-12GB-GDDR6/dp/B09DVMC4BV/ref=sr_1_46?keywords=6700xt&amp;qid=1671321430&amp;sr=8-46</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>628</v>
+        <v>505</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>628</v>
+        <v>514</v>
       </c>
       <c r="G41" t="n">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2057,27 +2065,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6700 XT GAMING X 12G Scheda video gaming AMD 12GB GDDR6, RGB Mystic Light, 3x DisplayPort, HDMI, sistema di dissipazione a doppia ventola  </t>
+          <t xml:space="preserve">ASUS DUAL AMD Radeon RX 6700XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech, Doppi Cuscinetti a Sfera, Tecnologia 0dB, GPU Tweak II, Nero  </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-Radeon-6700-GAMING-12G/dp/B002TCB038/ref=sr_1_27?keywords=6700xt&amp;qid=1671224636&amp;sr=8-27</t>
+          <t>https://www.amazon.it/ASUS-Grafica-DisplayPort-Cuscinetti-Tecnologia/dp/B09DVMC4BV/ref=sr_1_1?keywords=6700xt&amp;qid=1671321434&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>630</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricevilo entro </t>
-        </is>
+        <v>505</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>630</v>
+        <v>514</v>
       </c>
       <c r="G42" t="n">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2096,31 +2102,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Tarjeta gráfica Radeon RX 6700 XT Gaming OC 12G, Sistema de refrigeración WINDFORCE 3X, GDDR6 de 12 GB de 192 bits, GV-R67XTGAMING OC-12GD  </t>
+          <t xml:space="preserve">ASRock VGA RX6700XT Challenger D 12GB 6700XT One size  </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Tarjeta-refrigeraci%C3%B3n-WINDFORCE-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_33?keywords=6700xt&amp;qid=1671224633&amp;sr=8-33</t>
+          <t>https://www.amazon.de/ASRock-RX6700XT-Challenger-12GB-6700XT/dp/B093Z4BHJH/ref=sr_1_8?keywords=6700xt&amp;qid=1671321435&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>625</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9</v>
+        <v>517</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung bis </t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>634</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>517</v>
+      </c>
+      <c r="G43" t="n">
+        <v>369</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2135,31 +2141,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6700 XT OC Edition carte grphique (RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Double roulement à billes, protection en aluminium avec structure renforcée)  </t>
+          <t xml:space="preserve">Asrock RX 6700XT Challenger D RX6700XT CLD 12 GB OC  </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Vaorwne-Rangement-Stockage-Pique-Nique-Alimentaire/dp/B08BZP24CH/ref=sr_1_9?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-9</t>
+          <t>https://www.amazon.es/Asrock-6700XT-Challenger-RX6700XT-CLD/dp/B0977DG15L/ref=sr_1_1?keywords=6700xt&amp;qid=1671321430&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>648</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>511</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>648</v>
+        <v>520</v>
       </c>
       <c r="G44" t="n">
-        <v>647</v>
+        <v>508</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2174,29 +2178,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">RX 6700XT 12GB XFX compatible SWFT 309 Gaming  </t>
+          <t xml:space="preserve">ASROCK CHALLENGER RADEON RX 6700 XT D 12GB OC AMD GDDR6  </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/6700XT-12GB-XFX-SWFT-Gaming/dp/B08YKCC8XD/ref=sr_1_10?keywords=6700xt&amp;qid=1671224636&amp;sr=8-10</t>
+          <t>https://www.amazon.it/Asrock-Scheda-grafica-Challenger-RX6700XT/dp/B0977DG15L/ref=sr_1_2?keywords=6700xt&amp;qid=1671321434&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>662</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricevilo </t>
-        </is>
+        <v>511</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>662</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>520</v>
+      </c>
+      <c r="G45" t="n">
+        <v>508</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2215,31 +2215,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE Radeon RX 6700 XT 12G AMD 12 GB GDDR6  </t>
+          <t xml:space="preserve">SAPPHIRE VGA Nitro+ Radeon RX 6700 XT 12GB Gaming GDDR6 (UEFI)  </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/GIGABYTE-Radeon-6700-12G-GDDR6/dp/B091CT7CNX/ref=sr_1_15?keywords=6700xt&amp;qid=1671224633&amp;sr=8-15</t>
+          <t>https://www.amazon.it/SAPPHIRE-Nitro-Radeon-Gaming-GDDR6/dp/B0BDLSVF17/ref=sr_1_36?keywords=6700xt&amp;qid=1671321434&amp;sr=8-36</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>652</v>
+        <v>515</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>674</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>490</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2254,31 +2252,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor RX 6700XT 12GB Red Devil OC, AXRX 6700XT 12GBD6-3DHE/OC  </t>
+          <t xml:space="preserve">SAPPHIRE VGA Nitro+ Radeon RX 6700 XT 12 Go Gaming GDDR6 (UEFI)  </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/6700XT-12GB-PowerColor-Devil-OC/dp/B08Y934HZQ/ref=sr_1_25?keywords=6700xt&amp;qid=1671224636&amp;sr=8-25</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Nitro-Radeon-Gaming-GDDR6/dp/B0BDLSVF17/ref=sr_1_7?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-7</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>700</v>
+        <v>524</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>700</v>
+        <v>524</v>
       </c>
       <c r="G47" t="n">
-        <v>667</v>
+        <v>501</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2293,36 +2291,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor RX 6700 Fighter 10GB DDR6 HDMI + 3xDP  </t>
+          <t xml:space="preserve">MSI RX 6700 XT Gaming X 12G Taille Unique  </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/PowerColor-6700-Fighter-10GB-DDR6/dp/B0B7C1NL3D/ref=sr_1_28?keywords=6700xt&amp;qid=1671224636&amp;sr=8-28</t>
+          <t>https://www.amazon.fr/RX-6700-XT-Gaming-12G/dp/B002TCB038/ref=sr_1_1?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>701</v>
+        <v>525</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo entro </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>701</v>
-      </c>
-      <c r="G48" t="n">
-        <v>586</v>
+        <v>525</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2332,22 +2332,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor RX 6700XT 12GB Red Devil OC  </t>
+          <t xml:space="preserve">Sapphire Pulse Radeon RX 6700 XT 12GB 11306-02-20G  </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/6700XT-12GB-PowerColor-Devil-OC/dp/B08Y934HZQ/ref=sr_1_2?keywords=6700xt&amp;qid=1671224633&amp;sr=8-2</t>
+          <t>https://www.amazon.de/Sapphire-Pulse-Radeon-6700-11306-02-20G/dp/B08Y7ZYNDN/ref=sr_1_6?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>700</v>
-      </c>
-      <c r="E49" t="n">
-        <v>24</v>
+        <v>528</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
       </c>
       <c r="F49" t="n">
-        <v>724</v>
+        <v>528</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2356,12 +2358,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2371,27 +2373,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE Nitro+ AMD Radeon™ RX 6700 XT Gaming OC 12GB GDDR6 HDMI / Triple DP  </t>
+          <t xml:space="preserve">SAPPHIRE Pulse AMD Radeon™ RX 6700 XT Gaming 12GB GDDR6 HDMI / Triple DP  </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-Nitro-RadeonTM-Gaming-Triple/dp/B08Y835PXB/ref=sr_1_23?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-23</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Pulse-RadeonTM-Gaming-Triple/dp/B08Y7ZYNDN/ref=sr_1_4?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>766</v>
+        <v>530</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>766</v>
-      </c>
-      <c r="G50" t="n">
-        <v>696</v>
+        <v>530</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2400,7 +2404,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2410,27 +2414,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE - Nitro e AMD Radeon™, scheda video RX 6700 XT, Gaming OC, 12 GB, GDDR6 HDMI/DP triplo;  </t>
+          <t xml:space="preserve">PowerColor RX 6700 Fighter 10GB DDR6 HDMI + 3xDP  </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-RadeonTM-scheda-Gaming-triplo/dp/B08Y835PXB/ref=sr_1_42?keywords=6700xt&amp;qid=1671224636&amp;sr=8-42</t>
+          <t>https://www.amazon.it/PowerColor-6700-Fighter-10GB-DDR6/dp/B0B7C1NL3D/ref=sr_1_13?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>766</v>
+        <v>545</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>766</v>
-      </c>
-      <c r="G51" t="n">
-        <v>696</v>
+        <v>545</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2439,7 +2445,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2449,33 +2455,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire 11306-01-20G Nitro+ AMD Radeon RX 6700 XT Carte graphique de jeu avec GDDR6 12 Go AMD RDNA 2  </t>
+          <t xml:space="preserve">ASRock VGA RX 6700 XT 12GB Challenger Pro OC  </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Sapphire-Nitro-Radeon-graphique-gaming/dp/B08YN79ZW2/ref=sr_1_41?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-41</t>
+          <t>https://www.amazon.de/ASRock-VGA-6700-12GB-Challenger/dp/B08ZDT3Q8H/ref=sr_1_15?keywords=6700xt&amp;qid=1671321435&amp;sr=8-15</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>766</v>
+        <v>564</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>766</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>564</v>
+      </c>
+      <c r="G52" t="n">
+        <v>533</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2490,24 +2494,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG STRIX AMD Radeon RX 6700 XT OC Edition – Carte graphique gaming (12 GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Ventilateurx axiaux, 2.9" slot, GPU Tweak II)  </t>
+          <t xml:space="preserve">XFX RX-67XTYJFDV Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6  </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Vaorwne-P%C3%A9Pini%C3%A8Re-Fournitures-%C3%A9Cologique-Biod%C3%A9Gradable/dp/B08BZPX64M/ref=sr_1_45?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-45</t>
+          <t>https://www.amazon.fr/XFX-RX-67XTYJFDV-Carte-Graphique-Radeon/dp/B08YKCC8XD/ref=sr_1_1?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>931</v>
+        <v>566</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>931</v>
+        <v>566</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2531,24 +2535,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6700 XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, GPU Tweak II, Nero  </t>
+          <t xml:space="preserve">XFX Speedster SWFT309 AMD Radeon RX 6700 XT Core Gaming Grafikkarte mit 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYJFDV  </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Vaorwne-portaoggetti-tessuto-conservare-alimenti/dp/B08BZP24CH/ref=sr_1_22?keywords=6700xt&amp;qid=1671224636&amp;sr=8-22</t>
+          <t>https://www.amazon.de/XFX-Speedster-SWFT309-Grafikkarte-RX-67XTYJFDV/dp/B08YKCC8XD/ref=sr_1_7?keywords=6700xt&amp;qid=1671321435&amp;sr=8-7</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>949</v>
+        <v>570</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>949</v>
+        <v>570</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2557,7 +2561,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2572,31 +2576,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Technology Pulse Radeon RX 6700 XT Gaming OC 12 GB GDDR6 HDMI/Triple DP  </t>
+          <t xml:space="preserve">SAPPHIRE VGA Nitro+ Radeon RX 6700 XT 12GB Gaming GDDR6 (UEFI)  </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Sapphire-Technology-Radeon-Gaming-Triple/dp/B09C1VFD8T/ref=sr_1_47?keywords=6700xt&amp;qid=1671224636&amp;sr=8-47</t>
+          <t>https://www.amazon.es/SAPPHIRE-Nitro-Radeon-Gaming-GDDR6/dp/B0BDLSVF17/ref=sr_1_18?keywords=6700xt&amp;qid=1671321430&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricevilo </t>
-        </is>
+        <v>587</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>1007</v>
+        <v>596</v>
       </c>
       <c r="G55" t="n">
-        <v>1007</v>
+        <v>493</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2611,31 +2613,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX-67XTYPBDP Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6 Noir  </t>
+          <t xml:space="preserve">Asrock S RX 6700XT Challenger 12G Scheda Grafica - 12GB GDDR6, 1x HDMI, 3X DP  </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-RX-67XTYPBDP-Carte-Graphique-Radeon/dp/B091ZKN2RV/ref=sr_1_3?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-3</t>
+          <t>https://www.amazon.it/Asrock-6700XT-Challenger-Scheda-Grafica/dp/B093Z4BHJH/ref=sr_1_5?keywords=6700xt&amp;qid=1671321434&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1046</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le </t>
-        </is>
+        <v>590</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>1046</v>
+        <v>599</v>
       </c>
       <c r="G56" t="n">
-        <v>569</v>
+        <v>369</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2650,31 +2650,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG Strix AMD Radeon RX 6700XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, GPU Tweak II, Nero  </t>
+          <t xml:space="preserve">MSI RX 6700 XT Gaming X 12G Taille Unique  </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASUSTEK-6700XT-ASUS-ROG-STRIX-RX6700XT-O12G-GAMING/dp/B08BZPX64M/ref=sr_1_33?keywords=6700xt&amp;qid=1671224636&amp;sr=8-33</t>
+          <t>https://www.amazon.fr/RX-6700-XT-Gaming-12G/dp/B002TCB038/ref=sr_1_9?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-9</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1049</v>
+        <v>609</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1049</v>
+        <v>609</v>
       </c>
       <c r="G57" t="n">
-        <v>963</v>
+        <v>449</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2689,31 +2689,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">RX 6700XT 12GB XFX compatible QICK 319 Gaming  </t>
+          <t xml:space="preserve">SAPPHIRE Pulse AMD Radeon™ RX 6700 XT Gaming 12GB GDDR6 HDMI / Triple DP  </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/67XTYPBDP-12GB-XFX-QICK-Gaming/dp/B091ZKN2RV/ref=sr_1_16?keywords=6700xt&amp;qid=1671224636&amp;sr=8-16</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Pulse-RadeonTM-Gaming-Triple/dp/B08Y7ZYNDN/ref=sr_1_14?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-14</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1072</v>
+        <v>609</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo entro </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1072</v>
+        <v>609</v>
       </c>
       <c r="G58" t="n">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2728,31 +2728,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">POWERCOLOR RX 6700XT HELLHOUND 12GB RETAIL  </t>
+          <t xml:space="preserve">PowerLix Asrock Challenger Radeon RX 6700 XT Pro 12GB OC AMD GDDR6  </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/6700XT-12GB-PowerColor-AXRX-12GBD6-3DHL/dp/B08Y93KQR4/ref=sr_1_4?keywords=6700xt&amp;qid=1671224636&amp;sr=8-4</t>
+          <t>https://www.amazon.es/Asrock-Challenger-Radeon-6700-GDDR6/dp/B08ZDT3Q8H/ref=sr_1_36?keywords=6700xt&amp;qid=1671321430&amp;sr=8-36</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1152</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricevilo </t>
-        </is>
+        <v>608</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>1152</v>
+        <v>614</v>
       </c>
       <c r="G59" t="n">
-        <v>720</v>
+        <v>548</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2767,36 +2765,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Tarjeta gráfica con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+          <t xml:space="preserve">ASRock Phantom Gaming RX 6700 XT 12GB OC AMD Radeon RX 6700 XT 12 Go GDDR6 Carte Graphique Noir  </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-QICK319-Tarjeta-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_46?keywords=6700xt&amp;qid=1671224633&amp;sr=8-46</t>
+          <t>https://www.amazon.fr/ASRock-Phantom-Gaming-Radeon-Graphique/dp/B08ZDW3VJT/ref=sr_1_3?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1193</v>
+        <v>622</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1193</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1037</v>
+        <v>622</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2806,31 +2806,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Scheda grafica con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+          <t xml:space="preserve">Gigabyte Radeon RX 6700 XT Gaming OC 12G Carte Graphique avec système de Refroidissement WINDFORCE 3X, GDDR6 12 Go 192 Bits GV-R67XTGAMING OC-12GD  </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/XFX-SPEEDSTER-QICK319-grafica-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_44?keywords=6700xt&amp;qid=1671224636&amp;sr=8-44</t>
+          <t>https://www.amazon.fr/Graphique-WINDFORCE-Refroidissement-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_25?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-25</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1203</v>
+        <v>625</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo entro </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1203</v>
+        <v>625</v>
       </c>
       <c r="G61" t="n">
-        <v>799</v>
+        <v>610</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2845,31 +2845,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Technology Radeon RX 6700 XT Eagle - Tarjeta gráfica (12 GB)  </t>
+          <t xml:space="preserve">Gigabyte GVR67XTGAMING OC12GD Radeon RX 6700 XT Gaming OC 12G, WINDFORCE 3X Kühlsystem, 12GB 192-bit GDDR6, GV-R67XTGAMING OC-12GD Grafikkarte  </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-6700-Eagle/dp/B08Y758F6C/ref=sr_1_42?keywords=6700xt&amp;qid=1671224633&amp;sr=8-42</t>
+          <t>https://www.amazon.de/Grafikkarte-WINDFORCE-K%C3%BChlsystem-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_5?keywords=6700xt&amp;qid=1671321435&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1293</v>
+        <v>625</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Lieferung </t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1293</v>
-      </c>
-      <c r="G62" t="n">
-        <v>773</v>
+        <v>625</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2884,31 +2886,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6700 XT - Tarjeta gráfica para Juegos (12 GB, GDDR6, HDMI 3xDP, AMD RDNA 2 RX-67XTYTBDP)  </t>
+          <t xml:space="preserve">msi Radeon RX 6700 XT Gaming X 12G (12GB, Gaming-Carte graphiquen)  </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-MERC319-Radeon-6700/dp/B08YK97LKC/ref=sr_1_47?keywords=6700xt&amp;qid=1671224633&amp;sr=8-47</t>
+          <t>https://www.amazon.fr/Radeon-Gaming-Carte-Graphique-GDDR6/dp/B002U4KOVY/ref=sr_1_32?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-32</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1521</v>
+        <v>626</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1521</v>
-      </c>
-      <c r="G63" t="n">
-        <v>879</v>
+        <v>626</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2923,31 +2927,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX-67XTYTBDP Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6 Noir  </t>
+          <t xml:space="preserve">Scheda grafica Radeon RX 6700 XT Eagle 12G WINDFORCE 3X sistema di raffreddamento, 12GB 192-bit GDDR6, GV-R67XTEAGLE-12GD  </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-RX-67XTYTBDP-Carte-Graphique-Radeon/dp/B08YK97LKC/ref=sr_1_31?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-31</t>
+          <t>https://www.amazon.it/Grafica-Sistema-Raffreddamento-WINDFORCE-GV-R67XTEAGLE-12GD/dp/B08Z4J6NHW/ref=sr_1_39?keywords=6700xt&amp;qid=1671321434&amp;sr=8-39</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1604</v>
+        <v>627</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Consegna GRATUITA </t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1604</v>
+        <v>627</v>
       </c>
       <c r="G64" t="n">
-        <v>657</v>
+        <v>459</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2962,27 +2966,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASRock Phantom Gaming RX 6700 XT 12GB OC AMD Radeon RX 6700 XT 12 Go GDDR6 Carte Graphique Noir  </t>
+          <t xml:space="preserve">Radeon RX 6700 XT Eagle Carte Graphique 12 G, système de Refroidissement Windforce 3X, GDDR6 192 Bits, GV-R67XTEAGLE-12GD  </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASRock-Phantom-Gaming-Radeon-Graphique/dp/B08ZDW3VJT/ref=sr_1_12?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-12</t>
+          <t>https://www.amazon.fr/Graphique-syst%C3%A8me-Refroidissement-WINDFORCE-GV-R67XTEAGLE-12GD/dp/B08Z4J6NHW/ref=sr_1_41?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-41</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1609</v>
+        <v>627</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1609</v>
-      </c>
-      <c r="G65" t="n">
-        <v>630</v>
+        <v>627</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3001,27 +3007,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hellhound AMD Radeon RX 6700 XT 12GB GDDR6  </t>
+          <t xml:space="preserve">Gigabyte Tarjeta gráfica Radeon RX 6700 XT Gaming OC 12G, Sistema de refrigeración WINDFORCE 3X, GDDR6 de 12 GB de 192 bits, GV-R67XTGAMING OC-12GD  </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/6700XT-12GB-PowerColor-AXRX-12GBD6-3DHL/dp/B08Y93KQR4/ref=sr_1_3?keywords=6700xt&amp;qid=1671224633&amp;sr=8-3</t>
+          <t>https://www.amazon.es/Tarjeta-refrigeraci%C3%B3n-WINDFORCE-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_37?keywords=6700xt&amp;qid=1671321430&amp;sr=8-37</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1627</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
-        </is>
+        <v>625</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>1627</v>
-      </c>
-      <c r="G66" t="n">
-        <v>714</v>
+        <v>634</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3040,24 +3046,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire VCX 11306-01-20T Nitro+ AMD Radeon RX 6700 XT Gaming OC 12GB GDDR6  </t>
+          <t xml:space="preserve">VGA GIGABYTE RADEON RX 6700 XT GAMING OC 12GB GDDR6 RGB  </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Sapphire-11306-01-20T-Nitro-Radeon-Gaming/dp/B094593LB8/ref=sr_1_4?keywords=6700xt&amp;qid=1671224633&amp;sr=8-4</t>
+          <t>https://www.amazon.it/grafica-raffreddamento-WINDFORCE-GV-R67XTGAMING-OC-12GD/dp/B08Z5M4KFM/ref=sr_1_20?keywords=6700xt&amp;qid=1671321434&amp;sr=8-20</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1831</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entrega GRATIS entre el </t>
-        </is>
+        <v>625</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>1831</v>
+        <v>634</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3066,7 +3070,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3081,24 +3085,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheda grafica AORUS Radeon RX 6700 XT Elite 12G, sistema di raffreddamento WINDFORCE 3X, 12GB 192-bit GDDR6, GV-R67XTAORUS E-12GD  </t>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6700 XT Elite Grafikkarte, 12 GB, GV-R67XTAORUSE-12GD, One Size  </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/grafica-sistema-raffreddamento-WINDFORCE-GV-R67XTAORUS/dp/B08ZGWCFPT/ref=sr_1_39?keywords=6700xt&amp;qid=1671224636&amp;sr=8-39</t>
+          <t>https://www.amazon.de/Gigabyte-AORUS-Radeon-Elite-Grafikkarte/dp/B08Y74T47X/ref=sr_1_1?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2320</v>
+        <v>636</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricevilo </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2320</v>
+        <v>636</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3107,12 +3111,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3122,24 +3126,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">AORUS Radeon RX 6700 XT Elite 12G Carte Graphique avec système de Refroidissement Windforce 3X, GDDR6 12 Go 192 Bits GV-R67XTAORUS E-12GD  </t>
+          <t xml:space="preserve">ASRock VGA RX 6700 XT 12GB Phantom Gaming D OC, One size  </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Graphique-syst%C3%A8me-Refroidissement-Windforce-GV-R67XTAORUS/dp/B08ZGWCFPT/ref=sr_1_22?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-22</t>
+          <t>https://www.amazon.de/ASRock-6700-12GB-Phantom-Gaming/dp/B08ZDW3VJT/ref=sr_1_23?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-23</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2324</v>
+        <v>636</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2324</v>
+        <v>636</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3148,12 +3152,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3163,36 +3167,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Carte Graphique de Gaming avec GDDR6 HDMI 3xDP 12 Go AMD RDNA 2 RX-67XTYPUDP  </t>
+          <t xml:space="preserve">XFX SPEEDSTER MERC319 AMD Radeon™ RX 6700 XT BLACK Gaming Scheda grafica con 12GB GDDR6 HDMI 3xDP, AMD RDNA™ 2 (RX-67XTYTBDP)  </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Speedster-QICK319-Graphique-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_28?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-28</t>
+          <t>https://www.amazon.it/WAVE-12GB-Radeon-6700-MERC319/dp/B08YK97LKC/ref=sr_1_17?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-17</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2716</v>
+        <v>638</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2716</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1325</v>
+        <v>638</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3202,33 +3208,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newwiee Carte vidéo Fit for ASUS Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeux PCI-E4.0 Bureau Pas RX 580 5500 5700 6800 XT Carte Graphique de Jeu GPU Pc  </t>
+          <t xml:space="preserve">MSI Radeon RX 6700 XT GAMING X 12G Scheda video gaming AMD 12GB GDDR6, RGB Mystic Light, 3x DisplayPort, HDMI, sistema di dissipazione a doppia ventola  </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Newwiee-Radeon-Gaming-Graphique-PCI-E4-0/dp/B09GFSL7KT/ref=sr_1_18?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-18</t>
+          <t>https://www.amazon.it/MSI-Radeon-6700-GAMING-12G/dp/B002TCB038/ref=sr_1_29?keywords=6700xt&amp;qid=1671321434&amp;sr=8-29</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3155</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>630</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>3155</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>639</v>
+      </c>
+      <c r="G71" t="n">
+        <v>449</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3243,24 +3245,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">WWWFZS Carte graphiqueFit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPUGaming Carte Graphique Carte Graphique d'ordinateur  </t>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6700 XT Elite 12G AMD 12 GB GDDR6  </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/WWWFZS-graphiqueFit-Graphique-GPUGaming-dordinateur/dp/B09LPWYBTV/ref=sr_1_39?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-39</t>
+          <t>https://www.amazon.es/Gigabyte-AORUS-Radeon-Elite-GDDR6/dp/B08Y74T47X/ref=sr_1_1?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3497</v>
+        <v>644</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3497</v>
+        <v>644</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3269,12 +3271,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3284,24 +3286,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">lilili Carte Graphique Fit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPUcarte Graphique de Jeu  </t>
+          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6700 XT Black Gaming Grafikkarte mit 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYTBDP  </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/lilili-Graphique-GIGABYTE-PCI-E4-0-GPUcarte/dp/B09LQXJZZ5/ref=sr_1_20?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-20</t>
+          <t>https://www.amazon.de/XFX-Speedster-MERC319-Grafikkarte-RX-67XTYTBDP/dp/B08YK97LKC/ref=sr_1_4?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3504</v>
+        <v>645</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3504</v>
+        <v>645</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3310,12 +3312,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3325,16 +3327,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">ZXCVBNM Cartes graphiquesFit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPU  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6700 XT OC Edition carte grphique (RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Double roulement à billes, protection en aluminium avec structure renforcée)  </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ZXCVBNM-graphiquesFit-GIGABYTE-Graphique-PCI-E4-0/dp/B09NKY56V1/ref=sr_1_37?keywords=6700+xt&amp;qid=1671224635&amp;sr=8-37</t>
+          <t>https://www.amazon.fr/Vaorwne-Rangement-Stockage-Pique-Nique-Alimentaire/dp/B08BZP24CH/ref=sr_1_10?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-10</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3515</v>
+        <v>648</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3515</v>
+        <v>648</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3366,34 +3368,1497 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t xml:space="preserve">Asrock S - RX 6700XT 12GB Phantom Gaming  </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Asrock-6700XT-12GB-Phantom-Gaming/dp/B08ZDW3VJT/ref=sr_1_1?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>648</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>648</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX RX-67XTYTBDP Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6 Noir  </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/XFX-RX-67XTYTBDP-Carte-Graphique-Radeon/dp/B08YK97LKC/ref=sr_1_6?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>657</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>657</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VGA GIGABYTE RADEON RX6700XT AORUS ELITE 12GB GDDR6 2XHDMI 2XD  </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6700-ELITE/dp/B08Y74T47X/ref=sr_1_16?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>657</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>657</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RX 6700XT 12GB XFX compatible SWFT 309 Gaming  </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/6700XT-12GB-XFX-SWFT-Gaming/dp/B08YKCC8XD/ref=sr_1_9?keywords=6700xt&amp;qid=1671321434&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>662</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>671</v>
+      </c>
+      <c r="G78" t="n">
+        <v>599</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIGABYTE Radeon RX 6700 XT 12G AMD 12 GB GDDR6  </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/GIGABYTE-Radeon-6700-12G-GDDR6/dp/B091CT7CNX/ref=sr_1_16?keywords=6700xt&amp;qid=1671321430&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>652</v>
+      </c>
+      <c r="E79" t="n">
+        <v>22</v>
+      </c>
+      <c r="F79" t="n">
+        <v>674</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PowerColor RX 6700 Fighter 10GB DDR6 HDMI + 3xDP  </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/PowerColor-6700-Fighter-10GB-DDR6/dp/B0B7C1NL3D/ref=sr_1_30?keywords=6700xt&amp;qid=1671321434&amp;sr=8-30</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>701</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>709</v>
+      </c>
+      <c r="G80" t="n">
+        <v>545</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PowerLix Asrock Phantom Gaming RX 6700 XT 12GB OC AMD Radeon RX 6700 XT GDDR6  </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Asrock-Phantom-Gaming-Radeon-GDDR6/dp/B08ZDW3VJT/ref=sr_1_12?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>720</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>720</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Powercolor RX 6700XT 12GB Red Devil OC, AXRX 6700XT 12GBD6-3DHE/OC  </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/6700XT-12GB-PowerColor-Devil-OC/dp/B08Y934HZQ/ref=sr_1_25?keywords=6700xt&amp;qid=1671321434&amp;sr=8-25</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>700</v>
+      </c>
+      <c r="E82" t="n">
+        <v>24</v>
+      </c>
+      <c r="F82" t="n">
+        <v>724</v>
+      </c>
+      <c r="G82" t="n">
+        <v>667</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Powercolor RX 6700XT 12GB Red Devil OC  </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/6700XT-12GB-PowerColor-Devil-OC/dp/B08Y934HZQ/ref=sr_1_2?keywords=6700xt&amp;qid=1671321430&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>700</v>
+      </c>
+      <c r="E83" t="n">
+        <v>24</v>
+      </c>
+      <c r="F83" t="n">
+        <v>724</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAPPHIRE Nitro+ AMD Radeon™ RX 6700 XT Gaming OC 12GB GDDR6 HDMI / Triple DP  </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/SAPPHIRE-Nitro-RadeonTM-Gaming-Triple/dp/B08Y835PXB/ref=sr_1_22?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-22</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>766</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>766</v>
+      </c>
+      <c r="G84" t="n">
+        <v>696</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAPPHIRE - Nitro e AMD Radeon™, scheda video RX 6700 XT, Gaming OC, 12 GB, GDDR6 HDMI/DP triplo;  </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/SAPPHIRE-RadeonTM-scheda-Gaming-triplo/dp/B08Y835PXB/ref=sr_1_35?keywords=6700xt&amp;qid=1671321434&amp;sr=8-35</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>766</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consegna GRATUITA </t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>766</v>
+      </c>
+      <c r="G85" t="n">
+        <v>696</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIGABYTE AORUS Radeon RX 6700 XT Elite 12G AMD 12 Go GDDR6 Noir  </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Gigabyte-AORUS-Radeon-Elite-GDDR6/dp/B08Y74T47X/ref=sr_1_7?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>835</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>835</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6700 XT - Tarjeta gráfica para Juegos (12 GB, GDDR6, HDMI 3xDP, AMD RDNA 2 RX-67XTYTBDP)  </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XFX-Speedster-MERC319-Radeon-6700/dp/B08YK97LKC/ref=sr_1_11?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>879</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>879</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6700 XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, GPU Tweak II, Nero  </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Vaorwne-portaoggetti-tessuto-conservare-alimenti/dp/B08BZP24CH/ref=sr_1_18?keywords=6700xt&amp;qid=1671321434&amp;sr=8-18</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>949</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>958</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapphire Technology Pulse Radeon RX 6700 XT Gaming OC 12 GB GDDR6 HDMI/Triple DP  </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Sapphire-Technology-Radeon-Gaming-Triple/dp/B09C1VFD8T/ref=sr_1_48?keywords=6700xt&amp;qid=1671321434&amp;sr=8-48</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E89" t="n">
+        <v>29</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1036</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1007</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Tarjeta gráfica con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XFX-Speedster-QICK319-Tarjeta-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_10?keywords=6700xt&amp;m=A6T89FGPU3U0Q&amp;qid=1671321431&amp;s=warehouse-deals&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1037</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Scheda grafica con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/XFX-SPEEDSTER-QICK319-grafica-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_14?keywords=6700xt&amp;m=A1HO9729ND375Y&amp;qid=1671321435&amp;s=warehouse-deals&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1037</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Grafikkarte mit 12GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/XFX-Speedster-QICK319-Grafikkarte-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_7?keywords=6700xt&amp;m=A8KICS1PHF7ZO&amp;qid=1671321436&amp;s=warehouse-deals&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1037</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>AmazonDE</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX RX-67XTYPBDP Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6 Noir  </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/XFX-RX-67XTYPBDP-Carte-Graphique-Radeon/dp/B091ZKN2RV/ref=sr_1_4?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le </t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1046</v>
+      </c>
+      <c r="G93" t="n">
+        <v>569</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASUS ROG Strix AMD Radeon RX 6700XT OC Edition Scheda Grafica, AMD RDNA 2, PCIe 4.0, 12GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech e Doppi Cuscinetti a Sfera, GPU Tweak II, Nero  </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/ASUSTEK-6700XT-ASUS-ROG-STRIX-RX6700XT-O12G-GAMING/dp/B08BZPX64M/ref=sr_1_32?keywords=6700xt&amp;qid=1671321434&amp;sr=8-32</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1058</v>
+      </c>
+      <c r="G94" t="n">
+        <v>963</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RX 6700XT 12GB XFX compatible QICK 319 Gaming  </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/67XTYPBDP-12GB-XFX-QICK-Gaming/dp/B091ZKN2RV/ref=sr_1_14?keywords=6700xt&amp;qid=1671321434&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1081</v>
+      </c>
+      <c r="G95" t="n">
+        <v>499</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PowerColor Hellhound AMD Radeon RX 6700 XT Gaming Grafikkarte mit 12 GB GDDR6 Speicher, angetrieben von AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache AXRX 6700XT 12GBD6-3DHL  </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/PowerColor-Hellhound-Grafikkarte-angetrieben-Raytracing/dp/B08Y93KQR4/ref=sr_1_10?keywords=6700xt&amp;qid=1671321435&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1162</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung bis </t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1162</v>
+      </c>
+      <c r="G96" t="n">
+        <v>549</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>AmazonDE</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Scheda grafica con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/XFX-SPEEDSTER-QICK319-grafica-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_37?keywords=6700xt&amp;qid=1671321434&amp;sr=8-37</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1212</v>
+      </c>
+      <c r="G97" t="n">
+        <v>799</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Gaming Tarjeta gráfica con 12 GB GDDR6 HDMI 3xDP, AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XFX-Speedster-QICK319-Tarjeta-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_44?keywords=6700xt&amp;qid=1671321430&amp;sr=8-44</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1213</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrega GRATIS el </t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1213</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1037</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigabyte Technology Radeon RX 6700 XT Eagle - Tarjeta gráfica (12 GB)  </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-6700-Eagle/dp/B08Y758F6C/ref=sr_1_45?keywords=6700xt&amp;qid=1671321430&amp;sr=8-45</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrega GRATIS el </t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1315</v>
+      </c>
+      <c r="G99" t="n">
+        <v>773</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Carte Graphique de Gaming avec GDDR6 HDMI 3xDP 12 Go AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/XFX-Speedster-QICK319-Graphique-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_5?keywords=6700+xt&amp;m=A2CVHYRTWLQO9T&amp;qid=1671321433&amp;s=warehouse-deals&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1325</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1325</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX RX-67XTYTBDP Carte Graphique AMD Radeon RX 6700 XT 12 Go GDDR6 Noir  </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/XFX-RX-67XTYTBDP-Carte-Graphique-Radeon/dp/B08YK97LKC/ref=sr_1_39?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-39</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1604</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le </t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1604</v>
+      </c>
+      <c r="G101" t="n">
+        <v>657</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASRock Phantom Gaming RX 6700 XT 12GB OC AMD Radeon RX 6700 XT 12 Go GDDR6 Carte Graphique Noir  </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/ASRock-Phantom-Gaming-Radeon-Graphique/dp/B08ZDW3VJT/ref=sr_1_12?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1609</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le </t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1609</v>
+      </c>
+      <c r="G102" t="n">
+        <v>622</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hellhound AMD Radeon RX 6700 XT 12GB GDDR6  </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/6700XT-12GB-PowerColor-AXRX-12GBD6-3DHL/dp/B08Y93KQR4/ref=sr_1_3?keywords=6700xt&amp;qid=1671321430&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1654</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrega GRATIS el </t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1654</v>
+      </c>
+      <c r="G103" t="n">
+        <v>714</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapphire VCX 11306-01-20T Nitro+ AMD Radeon RX 6700 XT Gaming OC 12GB GDDR6  </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Sapphire-11306-01-20T-Nitro-Radeon-Gaming/dp/B094593LB8/ref=sr_1_4?keywords=6700xt&amp;qid=1671321430&amp;sr=8-4</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1831</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrega GRATIS entre el </t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1831</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AORUS Radeon RX 6700 XT Elite 12G Carte Graphique avec système de Refroidissement Windforce 3X, GDDR6 12 Go 192 Bits GV-R67XTAORUS E-12GD  </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Graphique-syst%C3%A8me-Refroidissement-Windforce-GV-R67XTAORUS/dp/B08ZGWCFPT/ref=sr_1_35?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-35</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2324</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>2324</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon RX 6700 XT Ultra Carte Graphique de Gaming avec GDDR6 HDMI 3xDP 12 Go AMD RDNA 2 RX-67XTYPUDP  </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/XFX-Speedster-QICK319-Graphique-RX-67XTYPUDP/dp/B08YKFS27X/ref=sr_1_29?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-29</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2716</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le </t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>2716</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1325</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newwiee Carte vidéo Fit for ASUS Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeux PCI-E4.0 Bureau Pas RX 580 5500 5700 6800 XT Carte Graphique de Jeu GPU Pc  </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Newwiee-Radeon-Gaming-Graphique-PCI-E4-0/dp/B09GFSL7KT/ref=sr_1_21?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-21</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>3155</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>3155</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WWWFZS Carte graphiqueFit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPUGaming Carte Graphique Carte Graphique d'ordinateur  </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/WWWFZS-graphiqueFit-Graphique-GPUGaming-dordinateur/dp/B09LPWYBTV/ref=sr_1_45?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-45</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>3497</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>3497</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lilili Carte Graphique Fit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPUcarte Graphique de Jeu  </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/lilili-Graphique-GIGABYTE-PCI-E4-0-GPUcarte/dp/B09LQXJZZ5/ref=sr_1_28?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-28</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3504</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>3504</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZXCVBNM Cartes graphiquesFit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPU  </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/ZXCVBNM-graphiquesFit-GIGABYTE-Graphique-PCI-E4-0/dp/B09NKY56V1/ref=sr_1_30?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>3515</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WSDSB Carte Graphique GamingFit for Carte vidéo GIGABYTE Radeon RX 6700 XT Gaming OC 12G Carte Graphique de Jeu PCI-E4.0 Bureau Pas RX 580 590 6800Xt GPU  </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/WSDSB-Graphique-GamingFit-GIGABYTE-PCI-E4-0/dp/B09LHFYJD3/ref=sr_1_36?keywords=6700+xt&amp;qid=1671321432&amp;sr=8-36</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>3515</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t xml:space="preserve">CTZL Tarjeta De Gaming Graphics Fit For Zafiro RX 6700XT Ultra Platino OC 12G Gráficos Discretos De Juego  </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/CTZL-Tarjeta-Graphics-Gr%C3%A1ficos-Discretos/dp/B09FYVJHP1/ref=sr_1_39?keywords=6700xt&amp;qid=1671224633&amp;sr=8-39</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/CTZL-Tarjeta-Graphics-Gr%C3%A1ficos-Discretos/dp/B09FYVJHP1/ref=sr_1_38?keywords=6700xt&amp;qid=1671321430&amp;sr=8-38</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
         <v>3698</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E112" t="n">
         <v>8</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F112" t="n">
         <v>3706</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>AmazonES</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>No</t>
         </is>
